--- a/hardware/BOM_邮票孔模块2023-07-04.xlsx
+++ b/hardware/BOM_邮票孔模块2023-07-04.xlsx
@@ -65,7 +65,7 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>随便都行，耐压6.3V以上</t>
+    <t>随便品牌都行，耐压6.3V以上</t>
   </si>
   <si>
     <t>1nF</t>
@@ -146,7 +146,8 @@
     <t>R2</t>
   </si>
   <si>
-    <t>随便都行，但是精度必须至少±１%</t>
+    <t>随便品牌都行，但是
+精度必须至少±１%</t>
   </si>
   <si>
     <t>2.2R</t>
@@ -853,16 +854,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,11 +873,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1203,7 +1207,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1219,250 +1223,250 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>4</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>5</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>2</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>2</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7">
@@ -1503,7 +1507,7 @@
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="8"/>
